--- a/demo/registration_process/test_excel_data/country.xlsx
+++ b/demo/registration_process/test_excel_data/country.xlsx
@@ -46,10 +46,10 @@
     <t>Chile</t>
   </si>
   <si>
-    <t>398565398935@gmail.com</t>
-  </si>
-  <si>
-    <t>https://at-client-portal-sit.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=3sTGC4n%2BiuR8TUigWY2skk56XbRbkCcuVA%2Fd6%2FyQjnM%3D</t>
+    <t>398565396921@gmail.com</t>
+  </si>
+  <si>
+    <t>f42X1Bl7zKuaSG9Pyf/MEg==</t>
   </si>
   <si>
     <t>MNP</t>
@@ -61,7 +61,7 @@
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>398565398936@gmail.com</t>
+    <t>398565396922@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -71,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,8 +99,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,23 +174,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,65 +184,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,14 +199,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,13 +236,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,67 +344,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,97 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,11 +430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,7 +449,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,6 +465,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,7 +499,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,26 +521,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,145 +535,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,7 +1020,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="F4 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1060,7 +1060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,10 +1073,10 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
     </row>
     <row r="3" ht="67.5" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -1217,9 +1217,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="398565398935@gmail.com" tooltip="mailto:398565398935@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="398565398936@gmail.com" tooltip="mailto:398565398936@gmail.com"/>
-    <hyperlink ref="F2" r:id="rId3" display="https://at-client-portal-sit.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=3sTGC4n%2BiuR8TUigWY2skk56XbRbkCcuVA%2Fd6%2FyQjnM%3D" tooltip="https://at-client-portal-sit.atfxdev.com/register?redirect_uri=ibRebateDetail&amp;utm_medium=ibcustomelink&amp;invitationCode=3sTGC4n%2BiuR8TUigWY2skk56XbRbkCcuVA%2Fd6%2FyQjnM%3D"/>
+    <hyperlink ref="E2" r:id="rId1" display="398565396921@gmail.com" tooltip="mailto:398565396921@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="398565396922@gmail.com" tooltip="mailto:398565396922@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/demo/registration_process/test_excel_data/country.xlsx
+++ b/demo/registration_process/test_excel_data/country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>三字码</t>
   </si>
@@ -46,22 +46,10 @@
     <t>Chile</t>
   </si>
   <si>
-    <t>398565396921@gmail.com</t>
+    <t>398565693@gmail.com</t>
   </si>
   <si>
     <t>f42X1Bl7zKuaSG9Pyf/MEg==</t>
-  </si>
-  <si>
-    <t>MNP</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>398565396922@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -69,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,9 +87,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,51 +111,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,33 +169,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,14 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +415,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,30 +477,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,31 +511,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -547,16 +535,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -568,112 +556,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,12 +1003,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="F4 D6"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1079,26 +1067,14 @@
       </c>
     </row>
     <row r="3" ht="67.5" customHeight="1" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="67.5" customHeight="1" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="5:5">
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="2"/>
@@ -1112,20 +1088,20 @@
     <row r="8" spans="5:5">
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+    </row>
+    <row r="11" spans="5:5">
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="5:5">
@@ -1212,13 +1188,9 @@
     <row r="39" spans="5:5">
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="398565396921@gmail.com" tooltip="mailto:398565396921@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="398565396922@gmail.com" tooltip="mailto:398565396922@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="398565693@gmail.com" tooltip="mailto:398565693@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
